--- a/scripts/data/__params__.xlsx
+++ b/scripts/data/__params__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/calibrate/optimiser/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C21F112-57C4-40D8-951B-E25FFA3BADE5}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC495868-BF8C-4CB6-9518-B6068ABCA6FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="45">
   <si>
     <t>Temperature</t>
   </si>
@@ -3999,7 +3999,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I2"/>
+      <selection activeCell="E2" sqref="E2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4060,59 +4060,6 @@
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="1">
-        <v>327.86500000000001</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.60553000000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>81.307000000000002</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2.1678500999999999E-2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>4.6995700000000001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>522.48900000000003</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2583744</v>
-      </c>
-      <c r="G3" s="1">
-        <v>65.415750000000003</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.6353333300000002E-5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6">
-        <v>7.9900000000000006E-3</v>
-      </c>
-      <c r="K3" s="6">
-        <v>6.3956399999999996E-5</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.35">

--- a/scripts/data/__params__.xlsx
+++ b/scripts/data/__params__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC495868-BF8C-4CB6-9518-B6068ABCA6FF}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E1FA6F-FD00-4B38-BD45-58E734A06A41}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEDA563-F318-4852-865D-A2318D089824}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1656,7 +1656,7 @@
         <v>2060.5402386019368</v>
       </c>
       <c r="G9" s="1">
-        <v>1.3077193184153759</v>
+        <v>1.3077193184153799</v>
       </c>
       <c r="H9" s="1">
         <v>15</v>
@@ -3998,7 +3998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C31987-20C0-4713-874C-028D8E4E8744}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:M4"/>
     </sheetView>
   </sheetViews>

--- a/scripts/data/__params__.xlsx
+++ b/scripts/data/__params__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E1FA6F-FD00-4B38-BD45-58E734A06A41}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E9FDD2-0CCF-44EE-B7FF-523C27CB95D5}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1554,7 +1554,7 @@
         <v>9.9885349470504678</v>
       </c>
       <c r="H5" s="1">
-        <v>2.871743109429576</v>
+        <v>2.87174310942958</v>
       </c>
       <c r="I5" s="1">
         <v>9930.2036092384715</v>

--- a/scripts/data/__params__.xlsx
+++ b/scripts/data/__params__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/moga_neml/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671724DF-B4D2-4B68-AA3D-5C12FCEA0851}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C5C307F-8D72-422D-9B63-AEF2A89761BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
   <si>
     <t>Temperature</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>A14,16,18,20,F7</t>
-  </si>
-  <si>
-    <t>better creep</t>
-  </si>
-  <si>
-    <t>better tensile</t>
   </si>
 </sst>
 </file>
@@ -864,7 +858,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,23 +1367,20 @@
       <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="E25" s="1">
-        <v>7.5511999999999997</v>
+        <v>4.8710000000000004</v>
       </c>
       <c r="F25" s="1">
-        <v>23.286000000000001</v>
+        <v>11.518000000000001</v>
       </c>
       <c r="G25" s="1">
-        <v>2.4796</v>
+        <v>7.0281000000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>3.8959000000000001</v>
+        <v>4.2420999999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>1475.4</v>
+        <v>1138.3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1401,9 +1392,6 @@
       </c>
       <c r="C26" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E26" s="1">
         <v>3.4691999999999998</v>
@@ -2219,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AF620-1FFC-4E74-9A03-F7E60FF34CC2}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
